--- a/ky/downloads/data-excel/3.6.1.xlsx
+++ b/ky/downloads/data-excel/3.6.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -152,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +303,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +388,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,21 +706,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="3" width="34" customWidth="1"/>
+    <col min="4" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.5" customHeight="1">
+    <row r="1" spans="1:20" ht="43.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
@@ -726,7 +738,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -742,7 +754,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -800,8 +812,11 @@
       <c r="S3" s="21">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" s="21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -859,185 +874,197 @@
       <c r="S4" s="26">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="8" t="s">
+      <c r="T4" s="26">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="30" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="24">
         <v>28.089887640449433</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="24">
         <v>30.111297453880166</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="24">
         <v>27.816464034328302</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="24">
         <v>24.728543804849025</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="24">
         <v>25.526132148235209</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="24">
         <v>25.41241020828069</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="24">
         <v>26.876967146444109</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="24">
         <v>23.348460179443656</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="24">
         <v>23.093356844925225</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="24">
         <v>19.889099179865195</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="27">
         <v>20.701777228045053</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="27">
         <v>16.264310999138949</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="27">
         <v>19.290797852416034</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="27">
         <v>14.7</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="27">
         <v>17.899999999999999</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="27">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="8" t="s">
+      <c r="T5" s="27">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="30" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="24">
         <v>8.9151932873838788</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="24">
         <v>8.6453192831434844</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="24">
         <v>7.5551969485806501</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>7.6122811469170273</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="24">
         <v>8.5243553008595985</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="24">
         <v>7.8246158184125196</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="24">
         <v>9.1279994467879124</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="24">
         <v>7.3242684208741649</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="24">
         <v>8.2771000232689556</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="24">
         <v>6.9424073530849713</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="27">
         <v>6.9091258036656749</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="27">
         <v>5.8041036581539815</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="27">
         <v>4.8264625411171567</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="27">
         <v>4.8</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="27">
         <v>7.3</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="27">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="9" t="s">
+      <c r="T6" s="27">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="32" customFormat="1">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>13.7</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <v>15.8</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <v>13.031550068587105</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="22">
         <v>12.587098224320073</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>12.780960775672101</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="22">
         <v>14.645703209132027</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="22">
         <v>11.994949494949497</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="22">
         <v>15.824085491163173</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="22">
         <v>11.041959445894397</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="26">
         <v>13.569321533923304</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="26">
         <v>9.0489025798998846</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="26">
         <v>10.165662650602409</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="26">
         <v>10.7</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="26">
         <v>12.6</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="26">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1095,8 +1122,11 @@
       <c r="S8" s="27">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="27">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1154,67 +1184,73 @@
       <c r="S9" s="27">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="9" t="s">
+      <c r="T9" s="27">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="32" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>13.2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>16.7</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>16.5</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>12.913875133508107</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>15.209489190740385</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>17.456593148756454</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>14.613970588235295</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <v>11.793302124594888</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <v>12.693935119887165</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <v>11.0573600552868</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="26">
         <v>8.6462659998304652</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="26">
         <v>7.9002079002079011</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="26">
         <v>8.6417740094570359</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="26">
         <v>6.2</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="26">
         <v>10.3</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="26">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="26">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1272,8 +1308,11 @@
       <c r="S11" s="27">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="27">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1331,67 +1370,73 @@
       <c r="S12" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="9" t="s">
+      <c r="T12" s="27">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="32" customFormat="1">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>32.5</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>29.3</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>23.2</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <v>27.319936780311583</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="22">
         <v>32.489356934797222</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>26.625249611715113</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="22">
         <v>35.307017543859651</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>23.850823937554207</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="22">
         <v>27.837259100642399</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="22">
         <v>22.813688212927758</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="26">
         <v>25.838716399249844</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <v>18.503289473684212</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="26">
         <v>19.476567255021305</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="26">
         <v>17.2</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="26">
         <v>24.8</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="26">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="26">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1449,8 +1494,11 @@
       <c r="S14" s="27">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="27">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1508,67 +1556,73 @@
       <c r="S15" s="27">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="9" t="s">
+      <c r="T15" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="32" customFormat="1">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>29.2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>26.4</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>28.3</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <v>27.617951668584585</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>26.934749620637326</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <v>27.016885553470921</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <v>24.84241750092696</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <v>28.937728937728942</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <v>30.785947120608469</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <v>19.685039370078741</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="26">
         <v>26.548672566371685</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <v>24.877365101611776</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="26">
         <v>23.586541796739507</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="26">
         <v>16.5</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="26">
         <v>23.9</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="26">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="26">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
@@ -1626,8 +1680,11 @@
       <c r="S17" s="27">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="27">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1685,67 +1742,73 @@
       <c r="S18" s="27">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="9" t="s">
+      <c r="T18" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="32" customFormat="1">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <v>13.5</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>15.3</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <v>14.5</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <v>14.674493062966915</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <v>14.745896603177391</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <v>14.993537268418786</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>14.326647564469916</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="22">
         <v>15.484721192652994</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="22">
         <v>12.379421221864952</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="22">
         <v>11.699120603015075</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="26">
         <v>11.7619926199262</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="26">
         <v>9.6385542168674707</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="26">
         <v>11.660516605166052</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="26">
         <v>9.6</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="26">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" s="26">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -1803,8 +1866,11 @@
       <c r="S20" s="27">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="27">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1862,67 +1928,73 @@
       <c r="S21" s="27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="9" t="s">
+      <c r="T21" s="27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="32" customFormat="1">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <v>15.3</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <v>17.3</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <v>16.7</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="22">
         <v>19.097222222222221</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="22">
         <v>24.400684931506849</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="22">
         <v>25.273799494524006</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="22">
         <v>23.198011599005799</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="22">
         <v>21.60619649408887</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="22">
         <v>16.044925792218208</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="22">
         <v>17.377567140600316</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="26">
         <v>15.56420233463035</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="26">
         <v>20.290964777947934</v>
       </c>
-      <c r="P22" s="27">
+      <c r="P22" s="26">
         <v>13.187641296156746</v>
       </c>
-      <c r="Q22" s="27">
+      <c r="Q22" s="26">
         <v>12.6</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="26">
         <v>12.1</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="26">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" s="26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
@@ -1980,8 +2052,11 @@
       <c r="S23" s="27">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="27">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2039,67 +2114,73 @@
       <c r="S24" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="9" t="s">
+      <c r="T24" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="32" customFormat="1">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>31</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <v>28.1</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>23.2</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <v>19.714144898965007</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>20.031757664590202</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <v>18.904274533413606</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>24.468085106382979</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <v>19.953596287703014</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <v>20.480145636591192</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="22">
         <v>18.185875264978243</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="26">
         <v>19.923371647509576</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="26">
         <v>14.816405411208933</v>
       </c>
-      <c r="P25" s="27">
+      <c r="P25" s="26">
         <v>15.255128879537086</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="26">
         <v>13.3</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="26">
         <v>17.3</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="26">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25" s="26">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -2157,8 +2238,11 @@
       <c r="S26" s="27">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2216,67 +2300,73 @@
       <c r="S27" s="27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="10" t="s">
+      <c r="T27" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="32" customFormat="1">
+      <c r="A28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="22">
         <v>14.4</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <v>15.6</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <v>13</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="22">
         <v>10.080881491032704</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="22">
         <v>9.2261561526928837</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="22">
         <v>8.3663086489542113</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="22">
         <v>11.490443044967407</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="22">
         <v>7.7711818672423094</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="22">
         <v>9.0726869922987667</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="22">
         <v>8.4588405199092218</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="26">
         <v>8.5754640839386589</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="26">
         <v>5.4203212772247955</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="26">
         <v>8.5527580242167982</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="26">
         <v>6.3</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="26">
         <v>7.8</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28" s="26">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" s="26">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S29" s="27">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="27">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2393,67 +2486,73 @@
       <c r="S30" s="27">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="10" t="s">
+      <c r="T30" s="27">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="32" customFormat="1">
+      <c r="A31" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
         <v>17.2</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>16.7</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <v>15.5</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="22">
         <v>14.36893203883495</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="22">
         <v>12.900703674745895</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="22">
         <v>9.6861681518791158</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="22">
         <v>12.176560121765601</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="22">
         <v>10.459469555472545</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="22">
         <v>12.454212454212454</v>
       </c>
-      <c r="M31" s="24">
+      <c r="M31" s="22">
         <v>10.043041606886657</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="26">
         <v>7.7084793272599867</v>
       </c>
-      <c r="O31" s="27">
+      <c r="O31" s="26">
         <v>6.1203672220333214</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="26">
         <v>7.8431372549019605</v>
       </c>
-      <c r="Q31" s="27">
+      <c r="Q31" s="26">
         <v>6</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="26">
         <v>6.7</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31" s="26">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="10" t="s">
         <v>36</v>
       </c>
@@ -2511,8 +2610,11 @@
       <c r="S32" s="27">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1">
+      <c r="T32" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2569,6 +2671,9 @@
       </c>
       <c r="S33" s="28" t="s">
         <v>42</v>
+      </c>
+      <c r="T33" s="28">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
